--- a/main/StructureDefinition-bc-location.xlsx
+++ b/main/StructureDefinition-bc-location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="402">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27T23:52:18+00:00</t>
+    <t>2025-02-28T00:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -307,10 +307,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Location.implicitRules</t>
   </si>
   <si>
@@ -330,6 +337,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Location.language</t>
   </si>
   <si>
@@ -407,26 +417,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Location.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -453,10 +470,6 @@
     <t>Indentifies languages that services are provided in at the location.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Location.extension:note</t>
   </si>
   <si>
@@ -524,10 +537,6 @@
     <t>Location.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -535,9 +544,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -575,6 +581,9 @@
     <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -603,13 +612,16 @@
     <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
   </si>
   <si>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
+  </si>
+  <si>
     <t>The operational status if the location (where typically a bed/room).</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>CV</t>
   </si>
   <si>
     <t>Location.name</t>
@@ -646,6 +658,12 @@
     <t>Location.name.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -780,6 +798,9 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -802,6 +823,10 @@
     <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>.telecom</t>
   </si>
   <si>
@@ -863,13 +888,7 @@
     <t>Location.physicalType.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Location.physicalType.coding</t>
@@ -1078,6 +1097,9 @@
     <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
   </si>
   <si>
+    <t>Do not use an IEEE type floating point type, instead use something that works like a true decimal, with inbuilt precision (e.g. Java BigInteger)</t>
+  </si>
+  <si>
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
   </si>
   <si>
@@ -1118,6 +1140,10 @@
     <t>Need to know who manages the location.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>.scopingEntity[classCode=ORG determinerKind=INSTANCE]</t>
   </si>
   <si>
@@ -1134,6 +1160,9 @@
     <t>Another Location of which this Location is physically a part of.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For purposes of location, display and identification, knowing which locations are located within other locations is important.</t>
   </si>
   <si>
@@ -1234,6 +1263,9 @@
   </si>
   <si>
     <t>Organizations may have different systems at different locations that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1627,7 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="70.30078125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2023,13 +2055,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2037,10 +2069,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2063,16 +2095,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2122,7 +2154,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2131,13 +2163,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2145,10 +2177,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2171,16 +2203,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2206,13 +2238,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2230,7 +2262,7 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -2239,13 +2271,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2253,14 +2285,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2279,16 +2311,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2338,7 +2370,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2347,13 +2379,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2361,14 +2393,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2387,16 +2419,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2446,7 +2478,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2461,7 +2493,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2469,14 +2501,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2495,15 +2527,17 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2540,17 +2574,19 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2559,13 +2595,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2573,16 +2609,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2601,15 +2637,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2658,7 +2696,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2667,13 +2705,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2681,13 +2719,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>74</v>
@@ -2709,13 +2747,13 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2766,7 +2804,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2775,10 +2813,10 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>74</v>
@@ -2789,13 +2827,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
@@ -2817,13 +2855,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2874,7 +2912,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2883,10 +2921,10 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>74</v>
@@ -2897,13 +2935,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>74</v>
@@ -2925,13 +2963,13 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2982,7 +3020,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2991,10 +3029,10 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -3005,13 +3043,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>74</v>
@@ -3033,13 +3071,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3090,7 +3128,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3099,10 +3137,10 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -3113,14 +3151,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3139,19 +3177,19 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3188,19 +3226,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3209,13 +3247,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3223,10 +3261,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3249,17 +3287,17 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3308,7 +3346,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3317,24 +3355,24 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3357,15 +3395,17 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3390,13 +3430,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3414,7 +3454,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3423,24 +3463,24 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3463,15 +3503,17 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3496,13 +3538,13 @@
         <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>74</v>
@@ -3520,7 +3562,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3529,24 +3571,24 @@
         <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3569,16 +3611,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3628,7 +3670,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3637,13 +3679,13 @@
         <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3651,10 +3693,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3677,13 +3719,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3734,7 +3776,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3757,10 +3799,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3783,13 +3825,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3828,17 +3870,17 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3850,7 +3892,7 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -3861,13 +3903,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>74</v>
@@ -3889,13 +3931,13 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3946,7 +3988,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3955,10 +3997,10 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3969,13 +4011,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>74</v>
@@ -3997,13 +4039,13 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4054,7 +4096,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4063,10 +4105,10 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -4077,13 +4119,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>74</v>
@@ -4105,13 +4147,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4162,7 +4204,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4171,10 +4213,10 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4185,10 +4227,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4211,13 +4253,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4241,7 +4283,7 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>74</v>
@@ -4268,7 +4310,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4291,10 +4333,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4317,19 +4359,19 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4378,7 +4420,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4387,13 +4429,13 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4401,10 +4443,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4427,17 +4469,19 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4486,7 +4530,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4495,13 +4539,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4509,10 +4553,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4535,19 +4579,19 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4572,13 +4616,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4596,7 +4640,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4605,24 +4649,24 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4645,15 +4689,17 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4678,13 +4724,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4702,7 +4748,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4711,24 +4757,24 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4751,13 +4797,13 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4808,7 +4854,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4817,13 +4863,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4831,10 +4877,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4857,19 +4903,19 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -4918,7 +4964,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4927,13 +4973,13 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4941,10 +4987,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4967,17 +5013,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5002,13 +5050,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5026,7 +5074,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5035,24 +5083,24 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5075,13 +5123,13 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5132,7 +5180,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5147,7 +5195,7 @@
         <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5155,14 +5203,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5181,16 +5229,16 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5228,19 +5276,19 @@
         <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5252,10 +5300,10 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5263,10 +5311,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5289,19 +5337,19 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5350,7 +5398,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5362,10 +5410,10 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5373,10 +5421,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5399,13 +5447,13 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5456,7 +5504,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5471,7 +5519,7 @@
         <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5479,14 +5527,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5505,16 +5553,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5552,19 +5600,19 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5576,10 +5624,10 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5587,10 +5635,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5613,19 +5661,19 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5674,7 +5722,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5686,10 +5734,10 @@
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5697,10 +5745,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5723,16 +5771,16 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5782,7 +5830,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5794,10 +5842,10 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5805,10 +5853,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5831,24 +5879,24 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>74</v>
@@ -5890,7 +5938,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5902,10 +5950,10 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5913,10 +5961,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5939,17 +5987,17 @@
         <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -5998,7 +6046,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6010,10 +6058,10 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6021,10 +6069,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6047,19 +6095,19 @@
         <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6108,7 +6156,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6120,10 +6168,10 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6131,10 +6179,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6157,19 +6205,19 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6218,7 +6266,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6230,10 +6278,10 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6241,10 +6289,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6267,17 +6315,17 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6326,7 +6374,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6335,13 +6383,13 @@
         <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6349,10 +6397,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6375,13 +6423,13 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6432,7 +6480,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6447,7 +6495,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6455,14 +6503,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6481,16 +6529,16 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6528,19 +6576,19 @@
         <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6549,13 +6597,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6563,14 +6611,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6589,19 +6637,19 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6650,7 +6698,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6659,13 +6707,13 @@
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6673,10 +6721,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6699,15 +6747,17 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -6756,7 +6806,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
@@ -6765,13 +6815,13 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -6779,10 +6829,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6805,15 +6855,17 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -6862,7 +6914,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -6871,13 +6923,13 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -6885,10 +6937,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6911,15 +6963,17 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -6968,7 +7022,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6977,13 +7031,13 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -6991,10 +7045,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7017,19 +7071,19 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7078,7 +7132,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7087,13 +7141,13 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>361</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7101,10 +7155,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7127,17 +7181,19 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7186,7 +7242,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7195,13 +7251,13 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>361</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7209,10 +7265,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7235,16 +7291,16 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7294,7 +7350,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7303,13 +7359,13 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7317,10 +7373,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7343,13 +7399,13 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7400,7 +7456,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7415,7 +7471,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7423,14 +7479,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7449,16 +7505,16 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7496,19 +7552,19 @@
         <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7517,13 +7573,13 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7531,14 +7587,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7557,19 +7613,19 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7618,7 +7674,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7627,13 +7683,13 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7641,10 +7697,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7667,15 +7723,17 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7700,13 +7758,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -7724,7 +7782,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7733,13 +7791,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7747,10 +7805,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7773,13 +7831,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7830,7 +7888,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -7839,13 +7897,13 @@
         <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7853,10 +7911,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7879,13 +7937,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7936,7 +7994,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -7945,13 +8003,13 @@
         <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -7959,10 +8017,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7985,13 +8043,13 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8042,7 +8100,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8051,13 +8109,13 @@
         <v>83</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8065,10 +8123,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8091,15 +8149,17 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8148,7 +8208,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8157,13 +8217,13 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8171,10 +8231,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8197,17 +8257,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8256,7 +8318,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8265,13 +8327,13 @@
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>361</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>189</v>
+        <v>401</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/main/StructureDefinition-bc-location.xlsx
+++ b/main/StructureDefinition-bc-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-28T00:26:03+00:00</t>
+    <t>2025-03-05T22:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-location.xlsx
+++ b/main/StructureDefinition-bc-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-05T22:25:43+00:00</t>
+    <t>2025-03-06T00:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-location.xlsx
+++ b/main/StructureDefinition-bc-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:10:12+00:00</t>
+    <t>2025-05-30T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1592,17 +1592,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.93359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.2734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1611,24 +1611,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.59765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="70.30078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.26953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
